--- a/Docs/BugReports.xlsx
+++ b/Docs/BugReports.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Yue\JobHunting\Code\BuggyCars_SpecFlow\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8F4D9B-18BC-4DFC-9C99-72698443E647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{957B96C8-7B23-4F43-A7B5-C1C4B4922A6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bugs" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -78,6 +78,17 @@
   </si>
   <si>
     <t>in screenshots page</t>
+  </si>
+  <si>
+    <t>step1:  login system using valid credential 
+step2:  click profile
+step3:  click logout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">profile page still present </t>
+  </si>
+  <si>
+    <t>default page should be present</t>
   </si>
 </sst>
 </file>
@@ -168,10 +179,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>542282</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>518160</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39997</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -195,7 +206,51 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7857482" cy="5044440"/>
+          <a:ext cx="6614160" cy="4246237"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>2</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>103984</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB26E419-636B-3F97-D6C3-CF3C6E11A730}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1" y="5852162"/>
+          <a:ext cx="6393179" cy="4675982"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -470,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,6 +606,29 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -560,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DD393EB-45A6-4F2A-9D93-2B3112399AC1}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
